--- a/import_tpl/AssetImport.xlsx
+++ b/import_tpl/AssetImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,12 +612,12 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="62.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
